--- a/Incubation/Hardware/Time4CM4_Sandwich/RiserBoard/Project Outputs for Time4CM4_Riser/Time4CM4_Riser.xlsx
+++ b/Incubation/Hardware/Time4CM4_Sandwich/RiserBoard/Project Outputs for Time4CM4_Riser/Time4CM4_Riser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Documents\GitHub\QUANTUM\Incubation\Hardware\Time4CM4_Sandwich\RiserBoard\Project Outputs for Time4CM4_Riser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06274E76-D9C8-458C-9C5F-77F4AD510A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A432572-E178-4E53-BC67-D18863C65A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="20100" windowHeight="11295" xr2:uid="{E1F1BE6A-8FFE-4E9A-B1EF-CB36AEB6F377}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1F1BE6A-8FFE-4E9A-B1EF-CB36AEB6F377}"/>
   </bookViews>
   <sheets>
     <sheet name="Time4CM4_Riser" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Line #</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>DF40C-100DS-0.4V(51)</t>
   </si>
   <si>
     <t>100 pin receptacle</t>
@@ -503,7 +500,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E0216-4B15-4F27-A17B-5E1D9B97F15C}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -580,33 +579,33 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -618,33 +617,33 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1">
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
